--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Arnold/Joseph_Arnold.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Arnold/Joseph_Arnold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Arnold est un naturaliste britannique, né le 28 décembre 1782 à Beccles et mort le 26 juillet 1818 à Padang à Sumatra[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Arnold est un naturaliste britannique, né le 28 décembre 1782 à Beccles et mort le 26 juillet 1818 à Padang à Sumatra.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il apprend la chirurgie à Crowfood et obtient son titre de docteur à Édimbourg en 1807. Il devient médecin de navire à la Navy l’année suivante. Il sert à bord de l’H.M.S. Northampton en 1815.
 Il étudie la faune et la flore de Java et de Sumatra aux côtés de Thomas Stamford Raffles (1781-1826). Il devient gouverneur de Sumatra en 1816.
-C’est lui qui découvre Rafflesia arnoldii que Robert Brown (1773-1858) lui dédie ainsi qu’à Raffles en 1821[1]. Membre de la Société linnéenne de Londres, il récolte des fossiles et des coquillages qu’il offre à la Société.
+C’est lui qui découvre Rafflesia arnoldii que Robert Brown (1773-1858) lui dédie ainsi qu’à Raffles en 1821. Membre de la Société linnéenne de Londres, il récolte des fossiles et des coquillages qu’il offre à la Société.
 </t>
         </is>
       </c>
